--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="1:1048576"/>
@@ -515,6 +515,193 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>jawahar</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12:21 12:33 18:4 18:4 18:8 18:44 18:44 18:44 18:53 18:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>venkat</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>jawahar</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12:30 12:31 12:37 12:37 12:37 12:38 12:38 13:55 13:57 13:57 13:58 13:58 14:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>venkat</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14:30 14:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>jawahar</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22:28 22:28 22:35 22:35 22:36 22:37 22:37 22:38 22:40 22:41 22:41 22:41 22:42 23:3 23:3 23:31 23:31 23:44 23:45 23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>venkat</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22:28 22:28 22:28 23:3 23:33 23:33 23:33 23:33 23:34 23:34 23:34 23:34 23:36 23:36 23:39 23:40 23:41 23:42 23:42 23:44 23:45 23:46 23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>venkat</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0:4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>jawahar</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:8 0:8 0:9 0:9 0:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>venkat</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10:27 10:47 13:3 13:7 13:7 18:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>jawahar</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10:28 10:28 10:29 10:31 10:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>venkat</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10:17 10:18 10:18 10:21 10:23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
